--- a/plan/excel/market_集市表.xlsx
+++ b/plan/excel/market_集市表.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Market" sheetId="4" r:id="rId1"/>
+    <sheet name="MarketConf" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Market!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketConf!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -579,7 +579,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/plan/excel/market_集市表.xlsx
+++ b/plan/excel/market_集市表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>dest#id_cnt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +191,10 @@
   </si>
   <si>
     <t>也可不要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dst#id_cnt</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,7 +580,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -630,7 +630,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -673,13 +673,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -693,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -713,13 +713,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/market_集市表.xlsx
+++ b/plan/excel/market_集市表.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="MarketConf" sheetId="4" r:id="rId1"/>
+    <sheet name="Market" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketConf!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Market!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,7 +580,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
